--- a/src/main/resources/US.xlsx
+++ b/src/main/resources/US.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B811AAF8-4A23-4F68-9F49-4188D390AC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50A39AB-D1AD-406D-85F4-B65AD4610BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>ФИО</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Медицина</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>Российский государственный университет правосудия</t>
   </si>
   <si>
@@ -170,6 +167,18 @@
   </si>
   <si>
     <t>Глебова Ирина Петровна</t>
+  </si>
+  <si>
+    <t>Архитектура</t>
+  </si>
+  <si>
+    <t>А1</t>
+  </si>
+  <si>
+    <t>СПбГАСУ</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургский государственный архитектурно-строительный университет</t>
   </si>
 </sst>
 </file>
@@ -514,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,13 +557,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3">
         <v>1897</v>
@@ -565,81 +574,81 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="3">
         <v>1998</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3">
         <v>1930</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D5" s="3">
         <v>1944</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3">
         <v>1878</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D7" s="3">
         <v>1907</v>
@@ -650,36 +659,53 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D8" s="3">
         <v>2010</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D9" s="3">
         <v>1900</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1832</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -692,7 +718,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -736,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -750,7 +776,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -764,7 +790,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -778,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -792,7 +818,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
@@ -806,7 +832,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -817,10 +843,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
